--- a/data/trans_dic/P24_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de sueño con bastante o mucha frecuencia</t>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>25,43%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,9%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26,61%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>38,22%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>32,99%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>34,31%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>33,35%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>18,29%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>32,7%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>27,11%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>30,37%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,62; 30,13</t>
+          <t>17,8; 30,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,89; 38,45</t>
+          <t>21,64; 36,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 23,47</t>
+          <t>9,56; 22,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,35; 22,28</t>
+          <t>8,39; 21,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,57; 24,67</t>
+          <t>16,71; 35,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,23; 54,28</t>
+          <t>10,86; 24,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,5; 45,28</t>
+          <t>18,46; 38,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,78; 31,95</t>
+          <t>37,24; 53,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,62; 30,09</t>
+          <t>29,04; 44,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,25; 48,89</t>
+          <t>19,68; 31,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,7; 39,45</t>
+          <t>15,9; 28,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,64; 38,74</t>
+          <t>19,42; 35,1</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 25,88</t>
+          <t>29,65; 47,92</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,47; 23,41</t>
+          <t>24,94; 42,08</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>21,03; 33,26</t>
+          <t>29,14; 39,52</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>27,42; 38,07</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>15,45; 24,49</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 23,11</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 32,48</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 33,53</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>24,32; 37,11</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>35,33%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>25,32%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>37,47%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>30,04%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,03%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28,56%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>30,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>31,98%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>38,41%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>38,67%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>22,76%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>29,35%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>23,56%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>24,81%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>29,59%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>33,77%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>31,69%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>38,06%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 23,04</t>
+          <t>10,52; 23,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,58; 38,22</t>
+          <t>17,76; 39,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,97; 25,22</t>
+          <t>13,96; 25,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,12; 27,89</t>
+          <t>13,86; 28,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 34,8</t>
+          <t>24,27; 54,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,68; 36,63</t>
+          <t>17,92; 35,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,41; 41,91</t>
+          <t>27,82; 47,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,92; 35,09</t>
+          <t>24,27; 36,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,27; 37,31</t>
+          <t>25,92; 40,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,69; 45,91</t>
+          <t>23,49; 35,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,84; 27,53</t>
+          <t>24,87; 37,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,75; 36,23</t>
+          <t>24,61; 40,24</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>19,56; 28,25</t>
+          <t>31,69; 46,7</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>20,67; 29,86</t>
+          <t>31,43; 46,72</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>25,91; 37,48</t>
+          <t>18,7; 27,02</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>23,73; 36,9</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>19,17; 27,89</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>20,39; 29,99</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>26,67; 45,9</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>25,87; 37,43</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>31,54; 44,39</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>25,73%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27,21%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>37,1%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>31,02%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>26,18%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31,67%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31,04%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>36,93%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>44,05%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>30,31%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>26,07%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>24,42%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>24,98%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>27,31%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>25,29%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>27,67%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>31,01%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>35,22%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,2; 29,28</t>
+          <t>18,4; 29,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 28,2</t>
+          <t>17,38; 29,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,9; 28,1</t>
+          <t>17,55; 27,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 23,78</t>
+          <t>14,31; 23,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,18; 32,02</t>
+          <t>18,59; 30,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,79; 42,63</t>
+          <t>19,99; 32,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,43; 36,83</t>
+          <t>20,95; 34,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,05; 30,87</t>
+          <t>31,57; 42,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,79; 35,69</t>
+          <t>26,11; 37,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,8; 43,11</t>
+          <t>22,17; 31,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,44; 34,79</t>
+          <t>27,18; 36,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,55; 30,22</t>
+          <t>26,44; 36,37</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>21,44; 28,0</t>
+          <t>31,08; 43,43</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,42</t>
+          <t>37,7; 50,85</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>26,54; 35,34</t>
+          <t>26,31; 33,97</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>23,1; 31,46</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 27,89</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>21,76; 28,59</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>23,26; 31,47</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>26,84; 35,47</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>30,27; 40,04</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>28,12%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>33,67%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37,95%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>37,06%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>37,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>38,39%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>38,65%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>40,66%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43,01%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>50,95%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45,25%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>29,37%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>29,99%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>30,32%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>31,14%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>41,85%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>30,29%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>31,39%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>35,6%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>41,86%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>41,48%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,17; 27,22</t>
+          <t>15,69; 28,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 28,0</t>
+          <t>17,25; 28,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 27,13</t>
+          <t>17,81; 28,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 26,54</t>
+          <t>17,33; 27,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,72; 41,21</t>
+          <t>22,35; 36,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,58; 42,73</t>
+          <t>26,68; 40,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,57; 42,6</t>
+          <t>31,51; 44,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,46; 43,62</t>
+          <t>31,96; 42,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,82; 45,92</t>
+          <t>32,28; 43,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,37; 57,79</t>
+          <t>33,6; 44,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,08; 33,38</t>
+          <t>35,84; 45,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,0; 33,77</t>
+          <t>37,75; 48,97</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>27,15; 34,14</t>
+          <t>44,15; 57,55</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>27,6; 35,1</t>
+          <t>38,83; 51,81</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>37,01; 46,1</t>
+          <t>25,78; 33,65</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>26,76; 34,44</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>27,34; 34,6</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>27,91; 35,2</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>31,82; 41,01</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>36,91; 47,08</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>36,51; 45,87</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>37,35%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>28,16%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>31,15%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>37,37%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>37,47%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,48%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42,83%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>54,34%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>53,3%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>22,15%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>28,48%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>31,53%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>25,78%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>46,22%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>28,94%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>34,27%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>45,1%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,45; 21,56</t>
+          <t>11,64; 21,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,12; 33,97</t>
+          <t>19,55; 33,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,2; 31,97</t>
+          <t>20,77; 33,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,69; 20,44</t>
+          <t>11,95; 20,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,64; 45,29</t>
+          <t>19,4; 31,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,77; 34,76</t>
+          <t>30,51; 44,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,28; 38,11</t>
+          <t>29,35; 43,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,83; 43,77</t>
+          <t>22,97; 33,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,56; 41,03</t>
+          <t>25,46; 38,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,84; 61,49</t>
+          <t>31,33; 43,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,46; 25,84</t>
+          <t>29,46; 41,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,03; 33,62</t>
+          <t>35,79; 50,92</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>27,7; 35,72</t>
+          <t>47,31; 60,91</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,52; 29,7</t>
+          <t>46,54; 60,14</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>41,31; 51,21</t>
+          <t>18,63; 26,6</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 34,06</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>27,45; 36,2</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>22,07; 29,77</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>29,94; 39,17</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>41,38; 51,12</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>40,3; 50,01</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>22,47%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>24,28%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,59%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>27,12%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>26,87%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>36,37%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>53,08%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>23,01%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>23,29%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>24,32%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>22,43%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>23,47%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>33,34%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>31,2%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>43,06%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,59; 26,93</t>
+          <t>13,77; 26,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,36; 28,18</t>
+          <t>14,31; 26,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 28,38</t>
+          <t>16,56; 30,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,19; 25,36</t>
+          <t>14,2; 25,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,46; 32,39</t>
+          <t>15,4; 29,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,67; 30,93</t>
+          <t>18,0; 32,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,76; 32,87</t>
+          <t>21,82; 37,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,41; 32,62</t>
+          <t>20,57; 30,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,61; 30,61</t>
+          <t>20,32; 33,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,71; 46,2</t>
+          <t>21,31; 32,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,39; 27,84</t>
+          <t>20,88; 33,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,18; 28,2</t>
+          <t>33,7; 50,83</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>20,41; 29,05</t>
+          <t>27,91; 46,12</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>18,09; 26,72</t>
+          <t>44,78; 61,72</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>25,53; 37,49</t>
+          <t>19,09; 27,31</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 28,2</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 29,78</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>19,11; 28,38</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>27,82; 40,32</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>25,25; 37,63</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>37,48; 48,86</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>27,5%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32,71%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>33,63%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>32,23%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>30,24%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>30,61%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31,36%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36,63%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>42,44%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>45,36%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>27,03%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>28,16%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>25,83%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>24,8%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>31,82%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>34,97%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>39,07%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,95; 22,77</t>
+          <t>17,9; 22,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,05; 26,94</t>
+          <t>21,28; 27,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,02; 23,62</t>
+          <t>19,04; 23,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,16; 20,87</t>
+          <t>16,47; 21,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,5; 30,41</t>
+          <t>23,43; 31,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,26; 35,97</t>
+          <t>24,43; 30,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,45; 34,81</t>
+          <t>29,47; 36,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,04; 32,63</t>
+          <t>31,31; 36,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,71; 33,4</t>
+          <t>30,18; 35,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39,42; 45,61</t>
+          <t>28,26; 32,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,33; 28,82</t>
+          <t>28,9; 33,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,23; 30,27</t>
+          <t>33,68; 39,54</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>24,09; 27,55</t>
+          <t>39,33; 45,69</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>23,04; 26,47</t>
+          <t>42,23; 48,43</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>32,78; 37,34</t>
+          <t>25,31; 28,87</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>26,65; 30,64</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>24,35; 27,59</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>23,32; 26,56</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>29,47; 34,09</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>32,58; 37,08</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>36,83; 41,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>122611</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>143848</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>75821</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>71158</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>115955</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12374</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>212183</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>173658</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>130932</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>112005</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>127004</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14292</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12717</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>334794</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>317506</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>206752</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>183163</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>242959</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>21543</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>25091</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>91299; 158349</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>108630; 185176</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>50132; 115493</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>42794; 109743</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>77945; 164731</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4568; 10496</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8134; 16781</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>172378; 249839</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>136116; 208922</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>101323; 164265</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>81300; 147491</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>92683; 167501</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11089; 17920</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9617; 16222</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>284388; 385641</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>266225; 369598</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>160552; 254478</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>140589; 236007</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>194715; 306498</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>17084; 26646</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>20094; 30663</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>90431</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>152724</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>106551</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>118924</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>204859</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12629</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17770</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>155850</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>169742</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>146050</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>157137</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>161515</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18133</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17789</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>246281</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>322466</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>252601</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>276061</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>366373</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>30762</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>35559</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59294; 131530</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>101841; 223993</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>78924; 144128</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>82395; 171975</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>140753; 315767</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8940; 17665</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13193; 22464</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>125909; 187787</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>133827; 208042</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>119355; 179210</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>128672; 192858</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>124320; 203243</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14961; 22044</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14460; 21496</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>202429; 292397</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>258602; 402075</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>205771; 299396</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>226656; 333399</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>289355; 498017</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>25118; 36336</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>29464; 41471</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>157712</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>154373</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>153013</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>125942</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>163709</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15491</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16445</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>257521</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>227608</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>191579</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>225392</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>222668</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19826</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24160</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>415233</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>381981</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>344592</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>351334</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>386377</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>35317</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>40605</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>124348; 200071</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>119305; 201942</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>119474; 187159</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>96999; 161718</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>126201; 207645</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12033; 19273</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12657; 20565</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>219184; 293507</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>186019; 266868</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>159280; 224430</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>193452; 256822</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>189685; 260909</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>16687; 23318</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20677; 27893</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>360431; 465409</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>323125; 440051</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>298882; 390227</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>302368; 397207</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>324728; 439371</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>30573; 40402</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>34901; 46163</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>133411</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>146076</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>146605</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>137918</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>184325</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19621</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21617</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>260620</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>257681</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>260237</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>266785</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>284474</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>26712</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>24105</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>394031</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>403758</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>406842</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>404704</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>468799</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>46333</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>45722</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>100190; 178849</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>111681; 181704</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>115047; 183171</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>109734; 172549</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>146495; 238086</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15548; 23688</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17946; 25520</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>224781; 296510</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>221337; 296372</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>226234; 296970</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>235175; 301679</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>249672; 323874</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>23146; 30170</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>20683; 27601</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>345899; 451525</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>356736; 459090</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>360703; 456475</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>359884; 453859</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>419028; 540056</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>40860; 52114</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>40243; 50561</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>83167</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>128568</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>132367</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>78505</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>123418</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16616</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16502</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>141493</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>162114</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>187922</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>182778</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>221375</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>26374</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>24970</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>224660</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>290681</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>320290</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>261283</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>344792</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>42991</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>41472</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>59582; 109888</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>96831; 166545</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>104176; 165549</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>58794; 101295</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>94877; 154689</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13573; 19785</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13244; 19684</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>115416; 170380</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>129607; 197601</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>157116; 218991</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>151779; 212344</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>185005; 263229</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>22965; 29564</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>21802; 28176</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>188934; 269827</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>245580; 342083</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>275310; 363117</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>222245; 299769</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>301166; 394088</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>38490; 47555</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>37057; 45995</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>106941</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>106330</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>116045</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>102363</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>127253</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11372</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13358</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>187150</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>189413</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>186123</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>185467</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>306429</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>22805</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>33796</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>294090</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>295742</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>302168</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>287830</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>433681</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>34176</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>47153</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>75291; 145310</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>78029; 142994</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>86251; 156975</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>75203; 136947</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>87227; 169092</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8431; 15263</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10002; 17072</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>150350; 225924</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>145227; 240226</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>146218; 226059</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>144132; 231326</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>247580; 373405</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>17502; 28919</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>28516; 39299</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>243970; 349053</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>239943; 355294</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>255299; 359397</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>233105; 346243</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>361891; 524554</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>27659; 41228</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>41045; 53514</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>537.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>515.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>544.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>463.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>472.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>802.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>807.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>730.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>736.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>811.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>694273</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>831919</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>730403</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>634810</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>919517</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>82979</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>98066</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1214817</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1180215</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1102843</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1129564</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1323464</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>128142</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>137537</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1909090</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2012134</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1833246</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1764375</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>2242981</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>211121</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>235603</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>617312; 781011</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>733892; 955249</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>654794; 822886</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>566202; 723832</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>805229; 1087293</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>73732; 91750</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>88361; 108765</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1131221; 1306226</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1088734; 1281334</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1018169; 1186711</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1040947; 1213922</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1216814; 1428462</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>118763; 137959</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>128045; 146839</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1787455; 2038659</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1880464; 2161849</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>1714456; 1942340</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1641450; 1869291</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>2077284; 2403221</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>196667; 223874</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>222126; 249896</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>